--- a/zed-opencv/python/data_1012/データ分析.xlsx
+++ b/zed-opencv/python/data_1012/データ分析.xlsx
@@ -7,12 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
+    <sheet name="vg" sheetId="1" r:id="rId1"/>
+    <sheet name="vgr" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="2k" sheetId="5" r:id="rId4"/>
+    <sheet name="2k (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (3)'!$C$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vg!$C$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vgr!$C$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="20">
   <si>
     <t>000000</t>
   </si>
@@ -86,6 +89,10 @@
   </si>
   <si>
     <t>oz</t>
+  </si>
+  <si>
+    <t>cam</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -467,7 +474,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -795,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2035,4 +2042,1492 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-0.17158140000000002</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-4.0290800000000002E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.3552599999999995E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.99960760000000004</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-2.3606599999999998E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.4330799999999999E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>4.6664000000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-16.2386178</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.6118792000000015</v>
+      </c>
+      <c r="F3" s="4">
+        <v>22.037589800000003</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.9597429999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-2.41064E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.27951340000000002</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.3582199999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <f>D2-D3</f>
+        <v>16.067036399999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:J4" si="0">E2-E3</f>
+        <v>-6.6521700000000017</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>-22.004037200000003</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9864600000000139E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9980000000000163E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>-0.26518260000000005</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>-8.915799999999998E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-4.3002635999999992</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1.4829582000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.13309619999999997</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.87200679999999997</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.8179000000000001E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.48896879999999998</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-1.3532600000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-16.772215800000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10.128969000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>25.0431314</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.97037459999999987</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-1.61134E-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-0.24103040000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4.1563999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D5-D6</f>
+        <v>12.471952200000002</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:J7" si="1">E5-E6</f>
+        <v>-11.611927200000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>-24.910035199999999</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="1"/>
+        <v>-9.8367799999999894E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
+        <v>-2.0656000000000008E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>-0.24793839999999998</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>-1.7689E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-0.46615900000000005</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-16.786156800000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10.276689999999999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>25.302812599999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.96853680000000009</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-2.0542799999999996E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-0.24731019999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.8768E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <f>D8-D9</f>
+        <v>12.377133799999999</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:J10" si="2">E8-E9</f>
+        <v>-11.643769999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>-25.088191599999998</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.4325800000000117E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>9.7179999999999489E-4</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.21884880000000007</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0756000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B2:J37">
+    <sortCondition ref="B2:B37"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>-0.172207</v>
+      </c>
+      <c r="E2">
+        <v>-4.0786999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.2521000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.99960499999999997</v>
+      </c>
+      <c r="H2">
+        <v>-2.3667000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>1.4454E-2</v>
+      </c>
+      <c r="J2">
+        <v>4.5640000000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>-0.17188000000000001</v>
+      </c>
+      <c r="E3">
+        <v>-4.0541000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.3061E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.99960899999999997</v>
+      </c>
+      <c r="H3">
+        <v>-2.3578999999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.4305E-2</v>
+      </c>
+      <c r="J3">
+        <v>4.5970000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>-0.171934</v>
+      </c>
+      <c r="E4">
+        <v>-4.0489999999999998E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.3459999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.99960400000000005</v>
+      </c>
+      <c r="H4">
+        <v>-2.3668999999999999E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.4428E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.7609999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>-0.17106499999999999</v>
+      </c>
+      <c r="E5">
+        <v>-3.9925000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>3.4230999999999998E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.99961</v>
+      </c>
+      <c r="H5">
+        <v>-2.3536999999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.4274999999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.64E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>-0.170821</v>
+      </c>
+      <c r="E6">
+        <v>-3.9711000000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.449E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.99961</v>
+      </c>
+      <c r="H6">
+        <v>-2.3581000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.4192E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="str">
+        <f>B6</f>
+        <v>pos1</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f>C6</f>
+        <v>ZED_21888201</v>
+      </c>
+      <c r="D7" s="4">
+        <f>AVERAGEA(D2:D6)</f>
+        <v>-0.17158140000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:J7" si="0">AVERAGEA(E2:E6)</f>
+        <v>-4.0290800000000002E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3552599999999995E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99960760000000004</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>-2.3606599999999998E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4330799999999999E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6664000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>-4.3014840000000003</v>
+      </c>
+      <c r="E8">
+        <v>-1.4831719999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.133439</v>
+      </c>
+      <c r="G8">
+        <v>0.87225600000000003</v>
+      </c>
+      <c r="H8">
+        <v>-1.8078E-2</v>
+      </c>
+      <c r="I8">
+        <v>-0.48852899999999999</v>
+      </c>
+      <c r="J8">
+        <v>-1.3521999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>-4.3005469999999999</v>
+      </c>
+      <c r="E9">
+        <v>-1.482728</v>
+      </c>
+      <c r="F9">
+        <v>0.13281799999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.87203299999999995</v>
+      </c>
+      <c r="H9">
+        <v>-1.8367000000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>-0.48891600000000002</v>
+      </c>
+      <c r="J9">
+        <v>-1.3518000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>-4.3000600000000002</v>
+      </c>
+      <c r="E10">
+        <v>-1.482753</v>
+      </c>
+      <c r="F10">
+        <v>0.13300999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.871915</v>
+      </c>
+      <c r="H10">
+        <v>-1.8149999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>-0.48913299999999998</v>
+      </c>
+      <c r="J10">
+        <v>-1.3540999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>-4.2996639999999999</v>
+      </c>
+      <c r="E11">
+        <v>-1.483033</v>
+      </c>
+      <c r="F11">
+        <v>0.13309599999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.871915</v>
+      </c>
+      <c r="H11">
+        <v>-1.8149999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>-0.48913299999999998</v>
+      </c>
+      <c r="J11">
+        <v>-1.3540999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>-4.299563</v>
+      </c>
+      <c r="E12">
+        <v>-1.4831049999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.13311799999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.871915</v>
+      </c>
+      <c r="H12">
+        <v>-1.8149999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>-0.48913299999999998</v>
+      </c>
+      <c r="J12">
+        <v>-1.3540999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="str">
+        <f>B12</f>
+        <v>pos2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>C12</f>
+        <v>ZED_21888201</v>
+      </c>
+      <c r="D13" s="4">
+        <f>AVERAGEA(D8:D12)</f>
+        <v>-4.3002635999999992</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:J13" si="1">AVERAGEA(E8:E12)</f>
+        <v>-1.4829582000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13309619999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87200679999999997</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.8179000000000001E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.48896879999999998</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.3532600000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E14">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H14">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I14">
+        <v>-0.46615899999999999</v>
+      </c>
+      <c r="J14">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E15">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H15">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I15">
+        <v>-0.46615899999999999</v>
+      </c>
+      <c r="J15">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E16">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F16">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G16">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H16">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I16">
+        <v>-0.46615899999999999</v>
+      </c>
+      <c r="J16">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E17">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H17">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I17">
+        <v>-0.46615899999999999</v>
+      </c>
+      <c r="J17">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E18">
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H18">
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I18">
+        <v>-0.46615899999999999</v>
+      </c>
+      <c r="J18">
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="str">
+        <f>B18</f>
+        <v>pos3</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>C18</f>
+        <v>ZED_21888201</v>
+      </c>
+      <c r="D19" s="4">
+        <f>AVERAGEA(D14:D18)</f>
+        <v>-4.4090230000000004</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19:J19" si="2">AVERAGEA(E14:E18)</f>
+        <v>-1.3670800000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21462100000000001</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="2"/>
+        <v>0.88421099999999997</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>-1.9571000000000002E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.46615900000000005</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.1988000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>-16.239611</v>
+      </c>
+      <c r="E20">
+        <v>6.6117020000000002</v>
+      </c>
+      <c r="F20">
+        <v>22.036821</v>
+      </c>
+      <c r="G20">
+        <v>0.95970699999999998</v>
+      </c>
+      <c r="H20">
+        <v>-2.3965E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.27964299999999997</v>
+      </c>
+      <c r="J20">
+        <v>1.3697000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>-16.239160999999999</v>
+      </c>
+      <c r="E21">
+        <v>6.6118290000000002</v>
+      </c>
+      <c r="F21">
+        <v>22.037046</v>
+      </c>
+      <c r="G21">
+        <v>0.959727</v>
+      </c>
+      <c r="H21">
+        <v>-2.4133999999999999E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.27956799999999998</v>
+      </c>
+      <c r="J21">
+        <v>1.3559E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>-16.238962000000001</v>
+      </c>
+      <c r="E22">
+        <v>6.6118930000000002</v>
+      </c>
+      <c r="F22">
+        <v>22.037329</v>
+      </c>
+      <c r="G22">
+        <v>0.95972599999999997</v>
+      </c>
+      <c r="H22">
+        <v>-2.4132000000000001E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.27956799999999998</v>
+      </c>
+      <c r="J22">
+        <v>1.3618E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>-16.238987000000002</v>
+      </c>
+      <c r="E23">
+        <v>6.6117439999999998</v>
+      </c>
+      <c r="F23">
+        <v>22.037315</v>
+      </c>
+      <c r="G23">
+        <v>0.95973799999999998</v>
+      </c>
+      <c r="H23">
+        <v>-2.4156E-2</v>
+      </c>
+      <c r="I23">
+        <v>0.279526</v>
+      </c>
+      <c r="J23">
+        <v>1.3578E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>-16.236367999999999</v>
+      </c>
+      <c r="E24">
+        <v>6.612228</v>
+      </c>
+      <c r="F24">
+        <v>22.039438000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.95981700000000003</v>
+      </c>
+      <c r="H24">
+        <v>-2.4145E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.27926200000000001</v>
+      </c>
+      <c r="J24">
+        <v>1.3459E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="str">
+        <f>B24</f>
+        <v>pos1</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>C24</f>
+        <v>ZED_22378008</v>
+      </c>
+      <c r="D25" s="4">
+        <f>AVERAGEA(D20:D24)</f>
+        <v>-16.2386178</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ref="E25:J25" si="3">AVERAGEA(E20:E24)</f>
+        <v>6.6118792000000015</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="3"/>
+        <v>22.037589800000003</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9597429999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.41064E-2</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>0.27951340000000002</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>1.3582199999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>-16.772182000000001</v>
+      </c>
+      <c r="E26">
+        <v>10.128130000000001</v>
+      </c>
+      <c r="F26">
+        <v>25.041793999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.97039799999999998</v>
+      </c>
+      <c r="H26">
+        <v>-1.6397999999999999E-2</v>
+      </c>
+      <c r="I26">
+        <v>-0.240924</v>
+      </c>
+      <c r="J26">
+        <v>3.7009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>-16.772182000000001</v>
+      </c>
+      <c r="E27">
+        <v>10.128133</v>
+      </c>
+      <c r="F27">
+        <v>25.041798</v>
+      </c>
+      <c r="G27">
+        <v>0.97039799999999998</v>
+      </c>
+      <c r="H27">
+        <v>-1.6397999999999999E-2</v>
+      </c>
+      <c r="I27">
+        <v>-0.240924</v>
+      </c>
+      <c r="J27">
+        <v>3.7009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>-16.772219</v>
+      </c>
+      <c r="E28">
+        <v>10.129346</v>
+      </c>
+      <c r="F28">
+        <v>25.043707000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.97035499999999997</v>
+      </c>
+      <c r="H28">
+        <v>-1.5761000000000001E-2</v>
+      </c>
+      <c r="I28">
+        <v>-0.24112600000000001</v>
+      </c>
+      <c r="J28">
+        <v>4.5640000000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>-16.77223</v>
+      </c>
+      <c r="E29">
+        <v>10.129621999999999</v>
+      </c>
+      <c r="F29">
+        <v>25.044117</v>
+      </c>
+      <c r="G29">
+        <v>0.97036100000000003</v>
+      </c>
+      <c r="H29">
+        <v>-1.6004999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>-0.241089</v>
+      </c>
+      <c r="J29">
+        <v>4.4079999999999996E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>-16.772265999999998</v>
+      </c>
+      <c r="E30">
+        <v>10.129614</v>
+      </c>
+      <c r="F30">
+        <v>25.044241</v>
+      </c>
+      <c r="G30">
+        <v>0.97036100000000003</v>
+      </c>
+      <c r="H30">
+        <v>-1.6004999999999998E-2</v>
+      </c>
+      <c r="I30">
+        <v>-0.241089</v>
+      </c>
+      <c r="J30">
+        <v>4.4079999999999996E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="str">
+        <f>B30</f>
+        <v>pos2</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f>C30</f>
+        <v>ZED_22378008</v>
+      </c>
+      <c r="D31" s="4">
+        <f>AVERAGEA(D26:D30)</f>
+        <v>-16.772215800000001</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31:J31" si="4">AVERAGEA(E26:E30)</f>
+        <v>10.128969000000001</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="4"/>
+        <v>25.0431314</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>0.97037459999999987</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.61134E-2</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.24103040000000001</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1563999999999993E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>-16.786380999999999</v>
+      </c>
+      <c r="E32">
+        <v>10.276130999999999</v>
+      </c>
+      <c r="F32">
+        <v>25.302427000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.96863999999999995</v>
+      </c>
+      <c r="H32">
+        <v>-2.0802000000000001E-2</v>
+      </c>
+      <c r="I32">
+        <v>-0.24688299999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.8772E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>-16.786182</v>
+      </c>
+      <c r="E33">
+        <v>10.276484</v>
+      </c>
+      <c r="F33">
+        <v>25.302804999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.96851100000000001</v>
+      </c>
+      <c r="H33">
+        <v>-2.0478E-2</v>
+      </c>
+      <c r="I33">
+        <v>-0.247417</v>
+      </c>
+      <c r="J33">
+        <v>1.8766999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>-16.786089</v>
+      </c>
+      <c r="E34">
+        <v>10.276878999999999</v>
+      </c>
+      <c r="F34">
+        <v>25.302923</v>
+      </c>
+      <c r="G34">
+        <v>0.96851100000000001</v>
+      </c>
+      <c r="H34">
+        <v>-2.0478E-2</v>
+      </c>
+      <c r="I34">
+        <v>-0.247417</v>
+      </c>
+      <c r="J34">
+        <v>1.8766999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>-16.786068</v>
+      </c>
+      <c r="E35">
+        <v>10.276968999999999</v>
+      </c>
+      <c r="F35">
+        <v>25.302949999999999</v>
+      </c>
+      <c r="G35">
+        <v>0.96851100000000001</v>
+      </c>
+      <c r="H35">
+        <v>-2.0478E-2</v>
+      </c>
+      <c r="I35">
+        <v>-0.247417</v>
+      </c>
+      <c r="J35">
+        <v>1.8766999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>-16.786064</v>
+      </c>
+      <c r="E36">
+        <v>10.276987</v>
+      </c>
+      <c r="F36">
+        <v>25.302958</v>
+      </c>
+      <c r="G36">
+        <v>0.96851100000000001</v>
+      </c>
+      <c r="H36">
+        <v>-2.0478E-2</v>
+      </c>
+      <c r="I36">
+        <v>-0.247417</v>
+      </c>
+      <c r="J36">
+        <v>1.8766999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="str">
+        <f>B36</f>
+        <v>pos3</v>
+      </c>
+      <c r="C37" s="4" t="str">
+        <f>C36</f>
+        <v>ZED_22378008</v>
+      </c>
+      <c r="D37" s="4">
+        <f>AVERAGEA(D32:D36)</f>
+        <v>-16.786156800000001</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" ref="E37:J37" si="5">AVERAGEA(E32:E36)</f>
+        <v>10.276689999999999</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="5"/>
+        <v>25.302812599999999</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="5"/>
+        <v>0.96853680000000009</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="5"/>
+        <v>-2.0542799999999996E-2</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.24731019999999998</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="5"/>
+        <v>1.8768E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>